--- a/数据整理/stocks/港股/02330-台积电.xlsx
+++ b/数据整理/stocks/港股/02330-台积电.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>43.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.92</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>9.75</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2227</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.18</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.93</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7694</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.15</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>9.75</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7186</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02330-台积电.xlsx
+++ b/数据整理/stocks/港股/02330-台积电.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4986</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02330-台积电.xlsx
+++ b/数据整理/stocks/港股/02330-台积电.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -764,4 +765,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02330-台积电.xlsx
+++ b/数据整理/stocks/港股/02330-台积电.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02330-台积电.xlsx
+++ b/数据整理/stocks/港股/02330-台积电.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,17 +880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -899,14 +920,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5901</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="3">
@@ -915,7 +1010,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -931,14 +1026,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3.72</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5">
@@ -947,13 +1042,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.99</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02330-台积电.xlsx
+++ b/数据整理/stocks/港股/02330-台积电.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,14 +1015,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2290</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.59</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="3">
@@ -1010,14 +1105,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="4">
@@ -1026,7 +1121,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1042,14 +1137,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>3.72</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6">
@@ -1058,13 +1153,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.99</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02330-台积电.xlsx
+++ b/数据整理/stocks/港股/02330-台积电.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,17 +1070,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1089,14 +1110,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8844</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.23</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="3">
@@ -1105,14 +1200,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.59</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="4">
@@ -1121,14 +1216,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="5">
@@ -1137,7 +1232,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1153,14 +1248,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>3.72</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7">
@@ -1169,13 +1264,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.99</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02330-台积电.xlsx
+++ b/数据整理/stocks/港股/02330-台积电.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>377016</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根亚太优势混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>43.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.92</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.2227</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000041</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏全球精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>35.89</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7694</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D4" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>2</v>
       </c>
+      <c r="D8" t="n">
+        <v>5.99</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -650,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.14</t>
+          <t>25.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.15</t>
+          <t>92.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.75</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.7186</t>
+          <t>1.8844</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +720,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -744,22 +760,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.37</t>
+          <t>27.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.69</t>
+          <t>86.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4986</t>
+          <t>2.2290</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -798,7 +814,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -838,22 +854,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.69</t>
+          <t>29.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.54</t>
+          <t>91.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5003</t>
+          <t>2.5901</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -892,7 +908,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -932,22 +948,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.50</t>
+          <t>31.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>90.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5901</t>
+          <t>2.5003</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -986,7 +1002,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1026,22 +1042,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.15</t>
+          <t>36.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.02</t>
+          <t>91.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2290</t>
+          <t>2.4986</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1080,7 +1096,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1120,26 +1136,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.43</t>
+          <t>38.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>93.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8844</t>
+          <t>3.7186</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1153,144 +1169,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2227</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7694</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5.99</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/02330-台积电.xlsx
+++ b/数据整理/stocks/港股/02330-台积电.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.23</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2.59</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +553,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>3.72</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.99</v>
       </c>
     </row>
@@ -661,27 +678,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根亚太优势混合(QDII)</t>
+          <t>上投摩根亚太优势混合（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.43</t>
+          <t>22.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>90.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8844</t>
+          <t>1.6569</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -760,22 +777,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.15</t>
+          <t>25.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.02</t>
+          <t>92.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2290</t>
+          <t>1.8844</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -854,22 +871,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.50</t>
+          <t>27.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>86.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5901</t>
+          <t>2.2290</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -908,7 +925,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -948,22 +965,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.69</t>
+          <t>29.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.54</t>
+          <t>91.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5003</t>
+          <t>2.5901</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1042,22 +1059,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.37</t>
+          <t>31.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.69</t>
+          <t>90.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4986</t>
+          <t>2.5003</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1136,26 +1153,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.14</t>
+          <t>36.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.15</t>
+          <t>91.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.75</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.7186</t>
+          <t>2.4986</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1164,6 +1181,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7186</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02330-台积电.xlsx
+++ b/数据整理/stocks/港股/02330-台积电.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +490,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2.23</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2.59</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="7">
@@ -569,7 +570,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>3.72</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,166 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>5.99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2227</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7694</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +832,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.76</t>
+          <t>25.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>91.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6569</t>
+          <t>1.6627</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -772,27 +921,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根亚太优势混合(QDII)</t>
+          <t>上投摩根亚太优势混合（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.43</t>
+          <t>22.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>90.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8844</t>
+          <t>1.6569</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -871,22 +1020,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.15</t>
+          <t>25.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.02</t>
+          <t>92.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2290</t>
+          <t>1.8844</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -965,22 +1114,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.50</t>
+          <t>27.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>86.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5901</t>
+          <t>2.2290</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1019,7 +1168,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1059,22 +1208,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.69</t>
+          <t>29.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.54</t>
+          <t>91.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5003</t>
+          <t>2.5901</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1153,22 +1302,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.37</t>
+          <t>31.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.69</t>
+          <t>90.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4986</t>
+          <t>2.5003</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1247,26 +1396,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.14</t>
+          <t>36.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.15</t>
+          <t>91.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.75</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.7186</t>
+          <t>2.4986</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1280,53 +1429,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1341,12 +1490,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.31</t>
+          <t>38.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>93.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1356,52 +1505,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.2227</t>
+          <t>3.7186</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000041</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏全球精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>35.89</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7694</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>